--- a/src/test/resources/excel/propworth.xlsx
+++ b/src/test/resources/excel/propworth.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="valid" sheetId="1" r:id="rId1"/>
     <sheet name="unavailableLocality" sheetId="2" r:id="rId2"/>
     <sheet name="invalidKey" sheetId="3" r:id="rId3"/>
+    <sheet name="invalidArea" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
   <si>
     <t>loc_key</t>
   </si>
@@ -87,6 +88,18 @@
   </si>
   <si>
     <t>asdajhgf</t>
+  </si>
+  <si>
+    <t>Please enter area</t>
+  </si>
+  <si>
+    <t>Builder Floor</t>
+  </si>
+  <si>
+    <t>sup_area[default=_]</t>
+  </si>
+  <si>
+    <t>floor[default=_]</t>
   </si>
 </sst>
 </file>
@@ -407,7 +420,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -454,7 +467,7 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D2">
         <v>4</v>
@@ -501,7 +514,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
@@ -544,7 +557,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -580,4 +593,66 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="30.140625" customWidth="1"/>
+    <col min="3" max="3" width="22.5703125" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1"/>
+    <col min="5" max="6" width="20" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>